--- a/Assets/06.Table/HellAbil.xlsx
+++ b/Assets/06.Table/HellAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEA803C-EF00-4390-8990-2A4E4D4270C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7911F057-5CED-4436-AE7A-F8B798F0674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="5160" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,43 @@
   </si>
   <si>
     <t>흑암 증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>h8</t>
+  </si>
+  <si>
+    <t>h9</t>
+  </si>
+  <si>
+    <t>h1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,22 +517,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +548,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -520,16 +560,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -537,16 +580,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -554,16 +600,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -571,16 +620,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -588,16 +640,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,16 +660,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -622,16 +680,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -639,16 +700,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -656,16 +720,19 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -673,13 +740,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
